--- a/data/trans_bre/P25A_5_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_5_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -561,37 +569,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>77,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>72,18%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,71%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83,42%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>281,36%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,96</t>
+          <t>-0,51; 1,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,36</t>
+          <t>-1,54; 1,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,75</t>
+          <t>-0,37; 2,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 15,04</t>
+          <t>-1,33; 1,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,43; —</t>
+          <t>0,14; 3,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 280,72</t>
+          <t>2,29; 6,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,54; 116,18</t>
+          <t>-62,48; 870,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 67,98</t>
+          <t>-45,93; 115,91</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-27,55; 300,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-41,88; 114,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 227,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>69,16; 779,29</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,17</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>244,04%</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,68%</t>
+          <t>264,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,82%</t>
+          <t>68,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>107,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44,26%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70,97%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1749,75%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,02</t>
+          <t>0,98; 5,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,8</t>
+          <t>-0,49; 2,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,42</t>
+          <t>-0,22; 6,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 26,51</t>
+          <t>-1,59; 4,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 1121,79</t>
+          <t>-1,44; 6,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 351,25</t>
+          <t>3,03; 12,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,16; 408,09</t>
+          <t>12,5; 1235,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 169,48</t>
+          <t>-45,86; 373,91</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-38,18; 496,47</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-56,76; 329,03</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,29; 272,17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>181,16; —</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>202,5%</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>70,77%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>222,3%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79,19%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 5,11</t>
+          <t>-4,62; 5,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,97</t>
+          <t>-1,91; 5,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,73</t>
+          <t>-0,14; 7,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 555,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-77,45; —</t>
+          <t>-2,96; 8,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>-82,51; 554,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-65,99; inf</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-59,08; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="M9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-53,61; 797,9</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>117,52%</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>123,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>31,91%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>101,29%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>77,54%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>357,6%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,59</t>
+          <t>0,25; 2,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,6</t>
+          <t>-0,5; 1,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,53</t>
+          <t>0,36; 3,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 12,2</t>
+          <t>-1,02; 1,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 379,59</t>
+          <t>0,46; 3,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 237,43</t>
+          <t>3,01; 7,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,26; 109,76</t>
+          <t>6,98; 370,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 49,61</t>
+          <t>-20,44; 127,03</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 257,46</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-34,08; 116,35</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 201,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>131,23; 789,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_5_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_5_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>77,5%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,48%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>72,18%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,71%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>83,42%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>281,36%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4439667595528331</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1269403153779741</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.9487909565864072</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2748309154911973</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.025049583510043</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>4.402039815466999</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.6532549918371108</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.05293555859788419</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.7236937658839743</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1171378014629331</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.8476626432345161</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>3.029260834962935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 1,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 1,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 2,43</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 1,68</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 3,89</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 6,6</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-62,48; 870,33</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-45,93; 115,91</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-27,55; 300,44</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-41,88; 114,04</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 227,53</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>69,16; 779,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6384700015727387</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.569970621169196</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3427706346887182</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.330918052478909</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.1954177008550898</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2.36449559472199</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6383710677390914</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4736279896095107</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2662996625998869</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4187768223547247</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.01085745761097957</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.9224652920293346</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.563669651845503</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.661671383520555</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.35761721138061</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.68375836377878</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.920278684119034</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>6.657354948677241</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>9.046161335123054</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.083608205331411</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.871839207735643</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.140371225446296</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>2.257158289563067</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>8.222785013700385</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>264,03%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>68,55%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>107,42%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>44,26%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>70,97%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>1749,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 5,78</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 2,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 6,02</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 4,05</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 6,23</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 12,66</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>12,5; 1235,14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-45,86; 373,91</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-38,18; 496,47</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-56,76; 329,03</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-31,29; 272,17</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>181,16; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.758016640833256</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8288015113536271</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.680516054488753</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.9868910342148173</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.70235218836713</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>5.371175273417428</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.337864231739626</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6659899767980572</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.9535369961261114</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4426055743989734</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.7216162289274447</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>16.27956456254977</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>22,68%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>70,77%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>222,3%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>79,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.649321153251602</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.544084833184283</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3932125796138075</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.592565720550875</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.339457294205218</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>2.923957055466577</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.03217125895860781</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5088899185874866</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4450961420031925</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5675864798220792</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.3009792310098566</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>1.792648903401778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 5,61</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 5,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 7,25</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 8,69</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-82,51; 554,82</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-65,99; inf</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-59,08; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-53,61; 797,9</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.477294010632035</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.596548489626197</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.250820014421638</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.049497304624538</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.311726589552745</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>10.7414443158877</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>11.15404763602962</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.598937926397231</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>4.729327018800427</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.29025591531458</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>2.764668826125054</v>
+      </c>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +929,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>123,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>31,91%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>101,29%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>18,58%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>77,54%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>357,6%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.019176098408608</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.550495897441164</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.665190297215192</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>3.051804570887287</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.3501620866366225</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6774462426413028</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.246871875607217</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.8446376597611048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 2,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 1,66</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 3,19</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 1,84</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 3,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 7,07</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 370,87</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-20,44; 127,03</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>9,23; 257,46</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-34,08; 116,35</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>10,94; 201,07</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>131,23; 789,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.560927230748303</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.023155829547878</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1618506488848108</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-2.644845861094094</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8052242077245094</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.678676772784678</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.566441168596218</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.527386149964569</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.440749494684446</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.759426692888254</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.155693055348883</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>8.831315970635266</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>6.815184186264339</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>12.31424317614612</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>8.362977830977158</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.3758120474569</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5791404439637919</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.417656048688198</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4307773107327235</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.144744959140199</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>4.62100233128057</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.193891802853548</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3011008668562888</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.9600941855113891</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1858150466067741</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.7889893985554884</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>3.647007885324024</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.204907341232495</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.5308426316592627</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2785522735597649</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.024244922568119</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.4977742322233742</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>2.96402737697522</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.04902058034114331</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2221571279443779</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.05034719224289094</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3407765344121346</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.1183048973223504</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>1.46528510176454</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.497074601129186</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.685043121875862</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.903414497046465</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.837355999433715</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.894240413930138</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>6.602947574595389</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.822388070743498</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.287787215063852</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.438589332833674</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.16354607519706</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.074184676748403</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>7.785832649814393</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1173,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
